--- a/data/trans_orig/P62AS2_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2_2015-Habitat-trans_orig.xlsx
@@ -2115,7 +2115,7 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2179,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,12%</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>66,96%</t>
         </is>
       </c>
     </row>
